--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96360153-BCE5-4838-A9EF-943E0BD45909}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B0EA43-7BD9-4EF1-B3D0-C655DF538552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD495C33-D592-421F-A620-90EC1032810E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,9 +1958,6 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
@@ -2014,9 +2011,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B0EA43-7BD9-4EF1-B3D0-C655DF538552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB2B5E-787F-44C4-AA18-591CDBBCFE91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,6 +1958,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB2B5E-787F-44C4-AA18-591CDBBCFE91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFEB247-AC6A-4E18-9F47-751CCC730190}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t xml:space="preserve">22.09.2019 SUN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamsi </t>
+  </si>
+  <si>
+    <t>Sathya</t>
+  </si>
+  <si>
+    <t>Rithika</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8BDD3-5C3F-40B1-B906-B45E3A1E2003}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1194,22 @@
       </c>
       <c r="B15" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD495C33-D592-421F-A620-90EC1032810E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFEB247-AC6A-4E18-9F47-751CCC730190}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC225A-394E-462F-BBE4-4DD6CA106994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mentors" sheetId="3" r:id="rId1"/>
     <sheet name="Buddies" sheetId="2" r:id="rId2"/>
-    <sheet name="Mentors" sheetId="3" r:id="rId3"/>
-    <sheet name="Week 5" sheetId="5" r:id="rId4"/>
-    <sheet name="Week 2" sheetId="7" r:id="rId5"/>
-    <sheet name="Week 3" sheetId="9" r:id="rId6"/>
-    <sheet name="Week 4" sheetId="10" r:id="rId7"/>
+    <sheet name="Week1" sheetId="1" r:id="rId3"/>
+    <sheet name="Week 2" sheetId="7" r:id="rId4"/>
+    <sheet name="Week 3" sheetId="9" r:id="rId5"/>
+    <sheet name="Week 4" sheetId="10" r:id="rId6"/>
+    <sheet name="Week 5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -654,6 +654,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBE1A0-DA33-41FC-BDBE-6184CA41A04E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8BDD3-5C3F-40B1-B906-B45E3A1E2003}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -1062,432 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F8BDD3-5C3F-40B1-B906-B45E3A1E2003}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBE1A0-DA33-41FC-BDBE-6184CA41A04E}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C49AA6B-15F3-4CE5-BF0D-4C7486D8835C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -1678,7 +1547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9513009-EDB5-4005-9E86-64F59DF7CC34}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -1873,12 +1742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD495C33-D592-421F-A620-90EC1032810E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,9 +1800,6 @@
       <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1943,18 +1809,21 @@
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" t="s">
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1976,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1990,7 +1859,7 @@
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2000,6 +1869,9 @@
       <c r="G9" t="s">
         <v>52</v>
       </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2045,6 +1917,137 @@
       </c>
       <c r="B17" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC225A-394E-462F-BBE4-4DD6CA106994}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C7A47-4805-48EC-A6ED-E4CA2CCB93EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,6 +1819,9 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" t="s">
         <v>51</v>
       </c>
@@ -1876,6 +1879,9 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C7A47-4805-48EC-A6ED-E4CA2CCB93EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21B778-AA56-4B73-9199-A46662FEB753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1380" windowWidth="15375" windowHeight="7875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mentors" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1755,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -1820,6 +1820,9 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21B778-AA56-4B73-9199-A46662FEB753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F971D5D-1298-4D4D-BF19-88EB5C01F1C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="1380" windowWidth="15375" windowHeight="7875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1797,6 +1797,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" t="s">
         <v>50</v>
       </c>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F971D5D-1298-4D4D-BF19-88EB5C01F1C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968569E-6752-486E-8513-04ADF78FF8B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1380" windowWidth="15375" windowHeight="7875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mentors" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1746,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD495C33-D592-421F-A620-90EC1032810E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,6 +2011,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2040,6 +2043,9 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968569E-6752-486E-8513-04ADF78FF8B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84C110-048A-4CA7-9B77-01ED2BD7906C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Rithika</t>
+  </si>
+  <si>
+    <t>Half day leave</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1750,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,6 +1853,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
@@ -1941,7 +1947,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +2002,9 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2023,6 +2032,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84C110-048A-4CA7-9B77-01ED2BD7906C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E527E9F-6185-4AC2-8D51-38A4855E3831}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,6 +2036,12 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E527E9F-6185-4AC2-8D51-38A4855E3831}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02DC86-E305-4E3E-9874-91817E941897}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mentors" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Week 2" sheetId="7" r:id="rId4"/>
     <sheet name="Week 3" sheetId="9" r:id="rId5"/>
     <sheet name="Week 4" sheetId="10" r:id="rId6"/>
-    <sheet name="Week 5" sheetId="5" r:id="rId7"/>
+    <sheet name="Week 6" sheetId="11" r:id="rId7"/>
+    <sheet name="Week 5" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -299,6 +300,27 @@
   </si>
   <si>
     <t>Half day leave</t>
+  </si>
+  <si>
+    <t>23.09.2019 MON</t>
+  </si>
+  <si>
+    <t>24.09.2019 TUE</t>
+  </si>
+  <si>
+    <t>25.09.2019 WED</t>
+  </si>
+  <si>
+    <t>26.09.2019 THU</t>
+  </si>
+  <si>
+    <t>27.09.2019 FRI</t>
+  </si>
+  <si>
+    <t>28.09.2019 SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09.2019 SUN </t>
   </si>
 </sst>
 </file>
@@ -955,7 +977,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,11 +1965,147 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F163F42-B4D3-40BB-96FD-3EA447C79671}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +2116,7 @@
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2005,16 +2163,34 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2023,11 +2199,23 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2042,15 +2230,30 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02DC86-E305-4E3E-9874-91817E941897}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735C0BE-14A1-4FBE-A6A7-E269DF79DE29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mentors" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F163F42-B4D3-40BB-96FD-3EA447C79671}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,6 +2041,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2104,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B76C4C-0DA7-4F86-82B6-5792D57B7CAB}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735C0BE-14A1-4FBE-A6A7-E269DF79DE29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363EA6B-5459-4528-AECB-A2E7D5D3BDD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,6 +2042,9 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363EA6B-5459-4528-AECB-A2E7D5D3BDD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A4C41D-0714-4686-AF00-B393A9092201}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.09.2019 SUN </t>
+  </si>
+  <si>
+    <t>Half day Leave</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1972,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,10 +2024,16 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
